--- a/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/MaterialCompositionAnnual-Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736F78A9-08A9-46ED-B96B-ED31A41D9E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B6A70-25FA-4B44-8E92-E0BFA8BBFDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0FB8D6CD-8546-4236-B63D-A974CB21DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Silicon" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
                   <c:v>8158.8874999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8289.7499999999909</c:v>
+                  <c:v>8289.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8350.15</c:v>
@@ -762,76 +762,76 @@
                   <c:v>9901.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10008.405555555501</c:v>
+                  <c:v>10008.405559999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10113.405555555501</c:v>
+                  <c:v>10113.405559999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10216.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10170.9111111111</c:v>
+                  <c:v>10170.911109999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10125.0111111111</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10078.799999999999</c:v>
+                  <c:v>10125.011109999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,172 +1049,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>3091.1854103343398</c:v>
+                  <c:v>3091.18541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3017.4165457184299</c:v>
+                  <c:v>3017.4165459999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2699.99999999999</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2540.37267080745</c:v>
+                  <c:v>2540.3726710000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2484.69891411648</c:v>
+                  <c:v>2484.6989140000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2433.96226415094</c:v>
+                  <c:v>2433.9622639999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2387.53387533875</c:v>
+                  <c:v>2387.5338750000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2344.8873483535499</c:v>
+                  <c:v>2344.8873480000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2317.8920526986799</c:v>
+                  <c:v>2317.892053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2256.0192616372301</c:v>
+                  <c:v>2256.0192619999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2113.83285302593</c:v>
+                  <c:v>2113.8328529999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2083.4794808839001</c:v>
+                  <c:v>2083.4794809999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2054.6821599453101</c:v>
+                  <c:v>2054.6821599999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2027.3242252582399</c:v>
+                  <c:v>2027.3242250000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2001.30039011703</c:v>
+                  <c:v>2001.3003900000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1987.15065852875</c:v>
+                  <c:v>1987.1506589999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1966.5931295304099</c:v>
+                  <c:v>1966.59313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1962.9861982434099</c:v>
+                  <c:v>1962.9861980000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1619.45812807881</c:v>
+                  <c:v>1619.458128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1592.7397260273899</c:v>
+                  <c:v>1592.739726</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1495.2424242424199</c:v>
+                  <c:v>1495.242424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1412.5263157894699</c:v>
+                  <c:v>1412.526316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1379.8208955223799</c:v>
+                  <c:v>1379.8208959999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1361.6666666666599</c:v>
+                  <c:v>1361.666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1343.64705882352</c:v>
+                  <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1315.0588235294099</c:v>
+                  <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1343.64705882352</c:v>
+                  <c:v>1272.176471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1315.0588235294099</c:v>
+                  <c:v>1250.7352940000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1286.4705882352901</c:v>
+                  <c:v>1229.294118</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1257.88235294117</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1222.14705882352</c:v>
+                  <c:v>1200.705882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1186.4117647058799</c:v>
+                  <c:v>1191.176471</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1181.64705882352</c:v>
+                  <c:v>1181.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1176.88235294117</c:v>
+                  <c:v>1172.117647</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1172.11764705882</c:v>
+                  <c:v>1162.5882349999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1167.35294117647</c:v>
+                  <c:v>1153.058824</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1162.5882352941101</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1157.8235294117601</c:v>
+                  <c:v>1143.5294120000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,31 +1432,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>848.42142857142801</c:v>
+                  <c:v>848.42142860000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>831.78571428571399</c:v>
+                  <c:v>831.7857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>815.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>798.51428571428505</c:v>
+                  <c:v>798.51428569999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>781.87857142857104</c:v>
+                  <c:v>781.87857140000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>765.24285714285702</c:v>
+                  <c:v>765.24285710000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>748.60714285714198</c:v>
+                  <c:v>748.60714289999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>731.97142857142796</c:v>
+                  <c:v>731.97142859999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>715.33571428571395</c:v>
+                  <c:v>715.33571429999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>698.7</c:v>
@@ -1495,19 +1495,19 @@
                   <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>419.219999999999</c:v>
+                  <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>419.219999999999</c:v>
+                  <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>410.8550082557</c:v>
+                  <c:v>410.85500830000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>402.14066674430001</c:v>
+                  <c:v>402.1406667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>395.54183337214999</c:v>
+                  <c:v>395.54183339999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>388.94299999999998</c:v>
@@ -1528,10 +1528,10 @@
                   <c:v>354.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>348.57366666666599</c:v>
+                  <c:v>348.57366669999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>343.13933333333301</c:v>
+                  <c:v>343.13933329999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>337.70499999999998</c:v>
@@ -1543,61 +1543,61 @@
                   <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>314.29854999999998</c:v>
+                  <c:v>333.04700000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,169 +1818,169 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.571428571428498</c:v>
+                  <c:v>84.571428569999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.142857142857096</c:v>
+                  <c:v>81.142857140000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.714285714285694</c:v>
+                  <c:v>77.714285709999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.285714285714207</c:v>
+                  <c:v>74.285714290000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.348571428571397</c:v>
+                  <c:v>45.34857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.154285714285699</c:v>
+                  <c:v>43.154285710000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.959999999999901</c:v>
+                  <c:v>40.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.765714285714203</c:v>
+                  <c:v>38.765714289999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.571428571428498</c:v>
+                  <c:v>36.571428570000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.3771428571428</c:v>
+                  <c:v>34.377142859999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.182857142857102</c:v>
+                  <c:v>32.182857140000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.988571428571401</c:v>
+                  <c:v>29.98857143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.794285714285699</c:v>
+                  <c:v>27.79428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.327416173570001</c:v>
+                  <c:v>12.327416169999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.2728468113083</c:v>
+                  <c:v>10.272846810000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2182774490466795</c:v>
+                  <c:v>8.2182774490000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7527942143326696</c:v>
+                  <c:v>5.7527942139999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3418803418803398</c:v>
+                  <c:v>5.3418803419999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5200525969756704</c:v>
+                  <c:v>4.5200525970000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0997570089490099</c:v>
+                  <c:v>4.0997570090000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0797067542614096</c:v>
+                  <c:v>4.079706754</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3143250717191401</c:v>
+                  <c:v>4.3143250719999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1223937921719198</c:v>
+                  <c:v>4.1223937919999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3920347419549</c:v>
+                  <c:v>3.3920347419999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4053681699243099</c:v>
+                  <c:v>3.5070153730000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1786072836069499</c:v>
+                  <c:v>3.2258721709999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0168606482795002</c:v>
+                  <c:v>3.0168606480000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6551843155685</c:v>
+                  <c:v>2.6551843160000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3330387718046399</c:v>
+                  <c:v>2.3330387720000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1767377735542599</c:v>
+                  <c:v>2.1767377739999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.06856477579512</c:v>
+                  <c:v>2.0685647760000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9645133024313699</c:v>
+                  <c:v>1.9645133020000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.84095440417322</c:v>
+                  <c:v>1.8409544040000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.7075395689999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.5781251409999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,97 +2273,97 @@
                   <c:v>8.26112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2540800000000001</c:v>
+                  <c:v>8.2252799999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7203200000000001</c:v>
+                  <c:v>8.2700800000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.68448</c:v>
+                  <c:v>8.3148800000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.66656</c:v>
+                  <c:v>8.3865599999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6486400000000001</c:v>
+                  <c:v>8.45824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.63968</c:v>
+                  <c:v>8.1954133329999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6307199999999999</c:v>
+                  <c:v>7.9325866669999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6128</c:v>
+                  <c:v>7.6697600000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5948800000000001</c:v>
+                  <c:v>7.3949866670000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5769599999999999</c:v>
+                  <c:v>7.1202133329999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.54112</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.50528</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4694400000000001</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2656,97 +2656,97 @@
                   <c:v>851.31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>849.44499999999903</c:v>
+                  <c:v>849.44500000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>809.70999999999901</c:v>
+                  <c:v>809.71</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>782.70749999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>778.33499999999901</c:v>
+                  <c:v>778.33500000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>756.04499999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>720.426999999999</c:v>
+                  <c:v>720.42700000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>692.09266666666599</c:v>
+                  <c:v>692.0926667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>680.278111111111</c:v>
+                  <c:v>680.27811110000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>668.33333333333303</c:v>
+                  <c:v>668.33333330000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>670.19733333333295</c:v>
+                  <c:v>670.19733329999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>671.74133333333305</c:v>
+                  <c:v>671.74133329999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>673.28533333333303</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>675.15200000000004</c:v>
+                  <c:v>673.28533330000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,157 +2802,157 @@
                   <c:v>205.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.39999999999901</c:v>
+                  <c:v>212.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>218.879999999999</c:v>
+                  <c:v>218.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225.35999999999899</c:v>
+                  <c:v>225.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231.83999999999901</c:v>
+                  <c:v>231.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>238.042153284671</c:v>
+                  <c:v>238.0421533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>244.22710622710599</c:v>
+                  <c:v>244.22710620000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.84237132352899</c:v>
+                  <c:v>270.84237130000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>297.39114391143897</c:v>
+                  <c:v>297.39114389999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>323.87268518518499</c:v>
+                  <c:v>323.87268519999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>350.28624535315902</c:v>
+                  <c:v>350.28624539999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>376.63106343283499</c:v>
+                  <c:v>376.63106340000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>402.906367041198</c:v>
+                  <c:v>402.90636699999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>424.82025845864598</c:v>
+                  <c:v>424.82025850000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>446.14037735849001</c:v>
+                  <c:v>446.14037739999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>450.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>469.048719691119</c:v>
+                  <c:v>469.04871969999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>488.55303370786498</c:v>
+                  <c:v>488.55303370000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>480.42291666666603</c:v>
+                  <c:v>480.42291669999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>472.89833333333303</c:v>
+                  <c:v>472.89833329999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>463.21199999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>432.53279999999899</c:v>
+                  <c:v>432.53280000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>380.7099</c:v>
+                  <c:v>408.81599999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>347.3032</c:v>
+                  <c:v>398.37720000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>326.60479999999899</c:v>
+                  <c:v>387.84320000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>305.94</c:v>
+                  <c:v>382.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>295.85219999999902</c:v>
+                  <c:v>377.46660000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>285.7568</c:v>
+                  <c:v>362.29880000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>269.70993333333303</c:v>
+                  <c:v>346.04293330000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>253.74666666666599</c:v>
+                  <c:v>329.87066670000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>237.866999999999</c:v>
+                  <c:v>312.09500000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>235.91555555555499</c:v>
+                  <c:v>294.8944444</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>233.96788888888801</c:v>
+                  <c:v>277.73166670000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,7 +3484,7 @@
                   <c:v>8158.8874999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8289.7499999999909</c:v>
+                  <c:v>8289.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8350.15</c:v>
@@ -3514,16 +3514,16 @@
                   <c:v>9901.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10008.405555555501</c:v>
+                  <c:v>10008.405559999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10113.405555555501</c:v>
+                  <c:v>10113.405559999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10216.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10170.9111111111</c:v>
+                  <c:v>10170.911109999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,112 +3681,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3091.1854103343398</c:v>
+                  <c:v>3091.18541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3017.4165457184299</c:v>
+                  <c:v>3017.4165459999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2699.99999999999</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2540.37267080745</c:v>
+                  <c:v>2540.3726710000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2484.69891411648</c:v>
+                  <c:v>2484.6989140000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2433.96226415094</c:v>
+                  <c:v>2433.9622639999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2387.53387533875</c:v>
+                  <c:v>2387.5338750000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2344.8873483535499</c:v>
+                  <c:v>2344.8873480000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2317.8920526986799</c:v>
+                  <c:v>2317.892053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2256.0192616372301</c:v>
+                  <c:v>2256.0192619999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2113.83285302593</c:v>
+                  <c:v>2113.8328529999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2083.4794808839001</c:v>
+                  <c:v>2083.4794809999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2054.6821599453101</c:v>
+                  <c:v>2054.6821599999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2027.3242252582399</c:v>
+                  <c:v>2027.3242250000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2001.30039011703</c:v>
+                  <c:v>2001.3003900000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1987.15065852875</c:v>
+                  <c:v>1987.1506589999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1966.5931295304099</c:v>
+                  <c:v>1966.59313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1962.9861982434099</c:v>
+                  <c:v>1962.9861980000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1619.45812807881</c:v>
+                  <c:v>1619.458128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1592.7397260273899</c:v>
+                  <c:v>1592.739726</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1495.2424242424199</c:v>
+                  <c:v>1495.242424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1412.5263157894699</c:v>
+                  <c:v>1412.526316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1379.8208955223799</c:v>
+                  <c:v>1379.8208959999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1361.6666666666599</c:v>
+                  <c:v>1361.666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1343.64705882352</c:v>
+                  <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1315.0588235294099</c:v>
+                  <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1343.64705882352</c:v>
+                  <c:v>1272.176471</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1315.0588235294099</c:v>
+                  <c:v>1250.7352940000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1286.4705882352901</c:v>
+                  <c:v>1229.294118</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1257.88235294117</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1222.14705882352</c:v>
+                  <c:v>1200.705882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1186.4117647058799</c:v>
+                  <c:v>1191.176471</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1181.64705882352</c:v>
+                  <c:v>1181.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1176.88235294117</c:v>
+                  <c:v>1172.117647</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1172.11764705882</c:v>
+                  <c:v>1162.5882349999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1167.35294117647</c:v>
+                  <c:v>1153.058824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3944,31 +3944,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>848.42142857142801</c:v>
+                  <c:v>848.42142860000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>831.78571428571399</c:v>
+                  <c:v>831.7857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>815.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>798.51428571428505</c:v>
+                  <c:v>798.51428569999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>781.87857142857104</c:v>
+                  <c:v>781.87857140000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>765.24285714285702</c:v>
+                  <c:v>765.24285710000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>748.60714285714198</c:v>
+                  <c:v>748.60714289999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>731.97142857142796</c:v>
+                  <c:v>731.97142859999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>715.33571428571395</c:v>
+                  <c:v>715.33571429999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>698.7</c:v>
@@ -4007,19 +4007,19 @@
                   <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>419.219999999999</c:v>
+                  <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>419.219999999999</c:v>
+                  <c:v>419.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>410.8550082557</c:v>
+                  <c:v>410.85500830000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>402.14066674430001</c:v>
+                  <c:v>402.1406667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>395.54183337214999</c:v>
+                  <c:v>395.54183339999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>388.94299999999998</c:v>
@@ -4040,10 +4040,10 @@
                   <c:v>354.00799999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>348.57366666666599</c:v>
+                  <c:v>348.57366669999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>343.13933333333301</c:v>
+                  <c:v>343.13933329999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>337.70499999999998</c:v>
@@ -4210,109 +4210,109 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.571428571428498</c:v>
+                  <c:v>84.571428569999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.142857142857096</c:v>
+                  <c:v>81.142857140000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.714285714285694</c:v>
+                  <c:v>77.714285709999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.285714285714207</c:v>
+                  <c:v>74.285714290000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.348571428571397</c:v>
+                  <c:v>45.34857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.154285714285699</c:v>
+                  <c:v>43.154285710000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.959999999999901</c:v>
+                  <c:v>40.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.765714285714203</c:v>
+                  <c:v>38.765714289999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.571428571428498</c:v>
+                  <c:v>36.571428570000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.3771428571428</c:v>
+                  <c:v>34.377142859999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.182857142857102</c:v>
+                  <c:v>32.182857140000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.988571428571401</c:v>
+                  <c:v>29.98857143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.794285714285699</c:v>
+                  <c:v>27.79428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.327416173570001</c:v>
+                  <c:v>12.327416169999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.2728468113083</c:v>
+                  <c:v>10.272846810000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2182774490466795</c:v>
+                  <c:v>8.2182774490000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7527942143326696</c:v>
+                  <c:v>5.7527942139999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3418803418803398</c:v>
+                  <c:v>5.3418803419999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5200525969756704</c:v>
+                  <c:v>4.5200525970000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0997570089490099</c:v>
+                  <c:v>4.0997570090000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0797067542614096</c:v>
+                  <c:v>4.079706754</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3143250717191401</c:v>
+                  <c:v>4.3143250719999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1223937921719198</c:v>
+                  <c:v>4.1223937919999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3920347419549</c:v>
+                  <c:v>3.3920347419999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.4053681699243099</c:v>
+                  <c:v>3.5070153730000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1786072836069499</c:v>
+                  <c:v>3.2258721709999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0168606482795002</c:v>
+                  <c:v>3.0168606480000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6551843155685</c:v>
+                  <c:v>2.6551843160000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3330387718046399</c:v>
+                  <c:v>2.3330387720000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1767377735542599</c:v>
+                  <c:v>2.1767377739999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.06856477579512</c:v>
+                  <c:v>2.0685647760000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9645133024313699</c:v>
+                  <c:v>1.9645133020000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.84095440417322</c:v>
+                  <c:v>1.8409544040000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7075395688916299</c:v>
+                  <c:v>1.7075395689999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4545,37 +4545,37 @@
                   <c:v>8.26112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2540800000000001</c:v>
+                  <c:v>8.2252799999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7203200000000001</c:v>
+                  <c:v>8.2700800000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.68448</c:v>
+                  <c:v>8.3148800000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.66656</c:v>
+                  <c:v>8.3865599999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6486400000000001</c:v>
+                  <c:v>8.45824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.63968</c:v>
+                  <c:v>8.1954133329999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6307199999999999</c:v>
+                  <c:v>7.9325866669999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6128</c:v>
+                  <c:v>7.6697600000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5948800000000001</c:v>
+                  <c:v>7.3949866670000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5769599999999999</c:v>
+                  <c:v>7.1202133329999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.54112</c:v>
+                  <c:v>6.84544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,37 +4808,37 @@
                   <c:v>851.31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>849.44499999999903</c:v>
+                  <c:v>849.44500000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>809.70999999999901</c:v>
+                  <c:v>809.71</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>782.70749999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>778.33499999999901</c:v>
+                  <c:v>778.33500000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>756.04499999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>720.426999999999</c:v>
+                  <c:v>720.42700000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>692.09266666666599</c:v>
+                  <c:v>692.0926667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>680.278111111111</c:v>
+                  <c:v>680.27811110000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>668.33333333333303</c:v>
+                  <c:v>668.33333330000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>670.19733333333295</c:v>
+                  <c:v>670.19733329999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>671.74133333333305</c:v>
+                  <c:v>671.74133329999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5011,97 +5011,97 @@
                   <c:v>205.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>212.39999999999901</c:v>
+                  <c:v>212.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>218.879999999999</c:v>
+                  <c:v>218.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225.35999999999899</c:v>
+                  <c:v>225.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231.83999999999901</c:v>
+                  <c:v>231.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>238.042153284671</c:v>
+                  <c:v>238.0421533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>244.22710622710599</c:v>
+                  <c:v>244.22710620000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.84237132352899</c:v>
+                  <c:v>270.84237130000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>297.39114391143897</c:v>
+                  <c:v>297.39114389999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>323.87268518518499</c:v>
+                  <c:v>323.87268519999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>350.28624535315902</c:v>
+                  <c:v>350.28624539999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>376.63106343283499</c:v>
+                  <c:v>376.63106340000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>402.906367041198</c:v>
+                  <c:v>402.90636699999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>424.82025845864598</c:v>
+                  <c:v>424.82025850000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>446.14037735849001</c:v>
+                  <c:v>446.14037739999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>450.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>469.048719691119</c:v>
+                  <c:v>469.04871969999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>488.55303370786498</c:v>
+                  <c:v>488.55303370000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>480.42291666666603</c:v>
+                  <c:v>480.42291669999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>472.89833333333303</c:v>
+                  <c:v>472.89833329999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>463.21199999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>432.53279999999899</c:v>
+                  <c:v>432.53280000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>380.7099</c:v>
+                  <c:v>408.81599999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>347.3032</c:v>
+                  <c:v>398.37720000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>326.60479999999899</c:v>
+                  <c:v>387.84320000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>305.94</c:v>
+                  <c:v>382.42500000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>295.85219999999902</c:v>
+                  <c:v>377.46660000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>285.7568</c:v>
+                  <c:v>362.29880000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>269.70993333333303</c:v>
+                  <c:v>346.04293330000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>253.74666666666599</c:v>
+                  <c:v>329.87066670000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>237.866999999999</c:v>
+                  <c:v>312.09500000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>235.91555555555499</c:v>
+                  <c:v>294.8944444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11725,16 +11725,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>34924</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>480786</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>377824</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>578756</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11763,16 +11763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>174080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12182,8 +12182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855FEC6-71A0-4178-BC01-33F7B8382BFB}">
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" activeCellId="1" sqref="A1:A1048576 L1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12260,10 +12260,10 @@
         <v>8000</v>
       </c>
       <c r="C2">
-        <v>3091.1854103343398</v>
+        <v>3091.18541</v>
       </c>
       <c r="D2">
-        <v>848.42142857142801</v>
+        <v>848.42142860000001</v>
       </c>
       <c r="E2">
         <v>88</v>
@@ -12279,39 +12279,39 @@
       </c>
       <c r="I2">
         <f>SUM(B2:H2)</f>
-        <v>13058.982838905767</v>
+        <v>13058.982838600001</v>
       </c>
       <c r="J2">
         <f>I2/1000</f>
-        <v>13.058982838905768</v>
+        <v>13.0589828386</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:R2" si="0">B2/$I2*100</f>
-        <v>61.260513921238392</v>
+        <v>61.260513922672764</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>23.670950857864479</v>
+        <v>23.670950855858489</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>6.4968415920096154</v>
+        <v>6.4968415923805267</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>0.67386565313362234</v>
+        <v>0.67386565314940028</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>4.1167065355072197E-2</v>
+        <v>4.1167065356036099E-2</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>6.4782993471709602</v>
+        <v>6.4782993473226442</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" si="0"/>
-        <v>1.3783615632278639</v>
+        <v>1.3783615632601371</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -12331,13 +12331,13 @@
         <v>8000</v>
       </c>
       <c r="C3">
-        <v>3017.4165457184299</v>
+        <v>3017.4165459999999</v>
       </c>
       <c r="D3">
-        <v>831.78571428571399</v>
+        <v>831.7857143</v>
       </c>
       <c r="E3">
-        <v>84.571428571428498</v>
+        <v>84.571428569999995</v>
       </c>
       <c r="F3">
         <v>5.3760000000000003</v>
@@ -12350,39 +12350,39 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I57" si="1">SUM(B3:H3)</f>
-        <v>12971.629688575573</v>
+        <v>12971.62968887</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J57" si="2">I3/1000</f>
-        <v>12.971629688575574</v>
+        <v>12.971629688869999</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L34" si="3">B3/$I3*100</f>
-        <v>61.673052592965959</v>
+        <v>61.673052591566126</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M57" si="4">C3/$I3*100</f>
-        <v>23.261661164872301</v>
+        <v>23.261661166514973</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N57" si="5">D3/$I3*100</f>
-        <v>6.4123455129025748</v>
+        <v>6.4123455128671614</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O57" si="6">E3/$I3*100</f>
-        <v>0.6519722702684968</v>
+        <v>0.65197227024268589</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P57" si="7">F3/$I3*100</f>
-        <v>4.1444291342473127E-2</v>
+        <v>4.1444291341532435E-2</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q57" si="8">G3/$I3*100</f>
-        <v>6.5219253117061502</v>
+        <v>6.5219253115581175</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R57" si="9">H3/$I3*100</f>
-        <v>1.4375988559420365</v>
+        <v>1.4375988559094062</v>
       </c>
       <c r="Y3" t="s">
         <v>27</v>
@@ -12410,13 +12410,13 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>2699.99999999999</v>
+        <v>2700</v>
       </c>
       <c r="D4">
         <v>815.15</v>
       </c>
       <c r="E4">
-        <v>81.142857142857096</v>
+        <v>81.142857140000004</v>
       </c>
       <c r="F4">
         <v>5.3760000000000003</v>
@@ -12429,39 +12429,39 @@
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>12640.628857142845</v>
+        <v>12640.628857139998</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>12.640628857142845</v>
+        <v>12.640628857139998</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="3"/>
-        <v>63.287990577141549</v>
+        <v>63.287990577155803</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="4"/>
-        <v>21.359696819785196</v>
+        <v>21.359696819790088</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>6.4486506898696172</v>
+        <v>6.4486506898710685</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="6"/>
-        <v>0.64192104728243538</v>
+        <v>0.64192104725997756</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>4.2529529667839128E-2</v>
+        <v>4.252952966784871E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="8"/>
-        <v>6.69270500353272</v>
+        <v>6.6927050035342273</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="9"/>
-        <v>1.5265063327206543</v>
+        <v>1.5265063327209982</v>
       </c>
       <c r="Y4" t="s">
         <v>29</v>
@@ -12481,13 +12481,13 @@
         <v>8000</v>
       </c>
       <c r="C5">
-        <v>2540.37267080745</v>
+        <v>2540.3726710000001</v>
       </c>
       <c r="D5">
-        <v>798.51428571428505</v>
+        <v>798.51428569999996</v>
       </c>
       <c r="E5">
-        <v>77.714285714285694</v>
+        <v>77.714285709999999</v>
       </c>
       <c r="F5">
         <v>5.3760000000000003</v>
@@ -12500,39 +12500,39 @@
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>12467.417242236023</v>
+        <v>12467.417242410002</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>12.467417242236023</v>
+        <v>12.467417242410001</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>64.167259702340772</v>
+        <v>64.167259701445332</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="4"/>
-        <v>20.376094113553837</v>
+        <v>20.37609411481392</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="5"/>
-        <v>6.4048091934322082</v>
+        <v>6.4048091932282514</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="6"/>
-        <v>0.62333909425131018</v>
+        <v>0.62333909420823641</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>4.3120398519972999E-2</v>
+        <v>4.3120398519371265E-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="8"/>
-        <v>6.7856877135225364</v>
+        <v>6.7856877134278442</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="9"/>
-        <v>1.5996897843793552</v>
+        <v>1.5996897843570321</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -12555,13 +12555,13 @@
         <v>8000</v>
       </c>
       <c r="C6">
-        <v>2484.69891411648</v>
+        <v>2484.6989140000001</v>
       </c>
       <c r="D6">
-        <v>781.87857142857104</v>
+        <v>781.87857140000006</v>
       </c>
       <c r="E6">
-        <v>74.285714285714207</v>
+        <v>74.285714290000001</v>
       </c>
       <c r="F6">
         <v>5.3760000000000003</v>
@@ -12574,39 +12574,39 @@
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>12398.159199830765</v>
+        <v>12398.159199690001</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>12.398159199830765</v>
+        <v>12.398159199690001</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>64.525707978561854</v>
+        <v>64.525707979294452</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="4"/>
-        <v>20.040869568366215</v>
+        <v>20.040869567654259</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="5"/>
-        <v>6.3064085468368862</v>
+        <v>6.3064085466780408</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="6"/>
-        <v>0.59916728837235944</v>
+        <v>0.59916728841373013</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>4.3361275761593564E-2</v>
+        <v>4.3361275762085871E-2</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="8"/>
-        <v>6.8235936187329163</v>
+        <v>6.8235936188103894</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="9"/>
-        <v>1.6608917233681817</v>
+        <v>1.6608917233870393</v>
       </c>
       <c r="Y6" t="s">
         <v>30</v>
@@ -12627,13 +12627,13 @@
         <v>8000</v>
       </c>
       <c r="C7">
-        <v>2433.96226415094</v>
+        <v>2433.9622639999998</v>
       </c>
       <c r="D7">
-        <v>765.24285714285702</v>
+        <v>765.24285710000004</v>
       </c>
       <c r="E7">
-        <v>45.348571428571397</v>
+        <v>45.34857143</v>
       </c>
       <c r="F7">
         <v>5.3760000000000003</v>
@@ -12642,43 +12642,43 @@
         <v>846</v>
       </c>
       <c r="H7">
-        <v>212.39999999999901</v>
+        <v>212.4</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>12308.329692722367</v>
+        <v>12308.32969253</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>12.308329692722367</v>
+        <v>12.30832969253</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>64.996633984627621</v>
+        <v>64.99663398564347</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="4"/>
-        <v>19.774919301926776</v>
+        <v>19.774919301009515</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="5"/>
-        <v>6.2172762368831211</v>
+        <v>6.2172762366320962</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="6"/>
-        <v>0.36843806235857468</v>
+        <v>0.36843806237593979</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>4.3677738037669771E-2</v>
+        <v>4.3677738038352412E-2</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="8"/>
-        <v>6.8733940438743719</v>
+        <v>6.8733940439817971</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="9"/>
-        <v>1.7256606322918557</v>
+        <v>1.7256606323188342</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
@@ -12689,13 +12689,13 @@
         <v>8000</v>
       </c>
       <c r="C8">
-        <v>2387.53387533875</v>
+        <v>2387.5338750000001</v>
       </c>
       <c r="D8">
-        <v>748.60714285714198</v>
+        <v>748.60714289999999</v>
       </c>
       <c r="E8">
-        <v>43.154285714285699</v>
+        <v>43.154285710000003</v>
       </c>
       <c r="F8">
         <v>5.3760000000000003</v>
@@ -12704,43 +12704,43 @@
         <v>846</v>
       </c>
       <c r="H8">
-        <v>218.879999999999</v>
+        <v>218.88</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>12249.551303910175</v>
+        <v>12249.55130361</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>12.249551303910176</v>
+        <v>12.24955130361</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
-        <v>65.308514585724637</v>
+        <v>65.308514587325021</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="4"/>
-        <v>19.490786365184054</v>
+        <v>19.490786362896269</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>6.1113025635329139</v>
+        <v>6.1113025640325453</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="6"/>
-        <v>0.35229278725099455</v>
+        <v>0.35229278722464091</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>4.3887321801606961E-2</v>
+        <v>4.3887321802682427E-2</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="8"/>
-        <v>6.9063754174403815</v>
+        <v>6.9063754176096213</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="9"/>
-        <v>1.786840959065418</v>
+        <v>1.7868409591092129</v>
       </c>
       <c r="U8" t="s">
         <v>3</v>
@@ -12772,13 +12772,13 @@
         <v>8000</v>
       </c>
       <c r="C9">
-        <v>2344.8873483535499</v>
+        <v>2344.8873480000002</v>
       </c>
       <c r="D9">
-        <v>731.97142857142796</v>
+        <v>731.97142859999997</v>
       </c>
       <c r="E9">
-        <v>40.959999999999901</v>
+        <v>40.96</v>
       </c>
       <c r="F9">
         <v>5.3760000000000003</v>
@@ -12787,43 +12787,43 @@
         <v>846</v>
       </c>
       <c r="H9">
-        <v>225.35999999999899</v>
+        <v>225.36</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>12194.554776924975</v>
+        <v>12194.5547766</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>12.194554776924976</v>
+        <v>12.1945547766</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
-        <v>65.603051085865971</v>
+        <v>65.603051087614233</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="4"/>
-        <v>19.228970563079841</v>
+        <v>19.228970560693035</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="5"/>
-        <v>6.0024448777457096</v>
+        <v>6.002444878139972</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
-        <v>0.33588762155963292</v>
+        <v>0.33588762156858487</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>4.4085250329701932E-2</v>
+        <v>4.408525033087677E-2</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="8"/>
-        <v>6.9375226523303262</v>
+        <v>6.9375226525152058</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="9"/>
-        <v>1.8480379490888359</v>
+        <v>1.8480379491380932</v>
       </c>
       <c r="T9" t="s">
         <v>8</v>
@@ -12852,13 +12852,13 @@
         <v>8000</v>
       </c>
       <c r="C10">
-        <v>2317.8920526986799</v>
+        <v>2317.892053</v>
       </c>
       <c r="D10">
-        <v>715.33571428571395</v>
+        <v>715.33571429999995</v>
       </c>
       <c r="E10">
-        <v>38.765714285714203</v>
+        <v>38.765714289999998</v>
       </c>
       <c r="F10">
         <v>5.3760000000000003</v>
@@ -12867,43 +12867,43 @@
         <v>846</v>
       </c>
       <c r="H10">
-        <v>231.83999999999901</v>
+        <v>231.84</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>12155.209481270105</v>
+        <v>12155.20948159</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>12.155209481270106</v>
+        <v>12.155209481589999</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>65.815402131301454</v>
+        <v>65.81540212956935</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="4"/>
-        <v>19.069124693163921</v>
+        <v>19.069124695141006</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>5.885013461824502</v>
+        <v>5.8850134617871532</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="6"/>
-        <v>0.3189226343276772</v>
+        <v>0.31892263435454288</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-        <v>4.4227950232234574E-2</v>
+        <v>4.4227950231070609E-2</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="8"/>
-        <v>6.9599787753851281</v>
+        <v>6.9599787752019582</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="9"/>
-        <v>1.9073303537651076</v>
+        <v>1.9073303537149195</v>
       </c>
       <c r="T10" t="s">
         <v>9</v>
@@ -12932,13 +12932,13 @@
         <v>8000</v>
       </c>
       <c r="C11">
-        <v>2256.0192616372301</v>
+        <v>2256.0192619999998</v>
       </c>
       <c r="D11">
         <v>698.7</v>
       </c>
       <c r="E11">
-        <v>36.571428571428498</v>
+        <v>36.571428570000002</v>
       </c>
       <c r="F11">
         <v>5.3760000000000003</v>
@@ -12947,43 +12947,43 @@
         <v>846</v>
       </c>
       <c r="H11">
-        <v>238.042153284671</v>
+        <v>238.0421533</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>12080.70884349333</v>
+        <v>12080.708843870001</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>12.08070884349333</v>
+        <v>12.080708843870001</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>66.221279758006915</v>
+        <v>66.221279755942163</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="4"/>
-        <v>18.674560333041402</v>
+        <v>18.674560335462019</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>5.7836010208649293</v>
+        <v>5.7836010206845989</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
-        <v>0.30272585032231675</v>
+        <v>0.30272585030105326</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>4.4500699997380655E-2</v>
+        <v>4.450069999599314E-2</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="8"/>
-        <v>7.0029003344092313</v>
+        <v>7.0029003341908842</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="9"/>
-        <v>1.9704320033578204</v>
+        <v>1.9704320034232714</v>
       </c>
       <c r="T11" t="s">
         <v>1</v>
@@ -13012,13 +13012,13 @@
         <v>8000</v>
       </c>
       <c r="C12">
-        <v>2113.83285302593</v>
+        <v>2113.8328529999999</v>
       </c>
       <c r="D12">
         <v>582.25</v>
       </c>
       <c r="E12">
-        <v>34.3771428571428</v>
+        <v>34.377142859999999</v>
       </c>
       <c r="F12">
         <v>5.3760000000000003</v>
@@ -13027,43 +13027,43 @@
         <v>846</v>
       </c>
       <c r="H12">
-        <v>244.22710622710599</v>
+        <v>244.22710620000001</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>11826.06310211018</v>
+        <v>11826.063102059999</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>11.826063102110179</v>
+        <v>11.826063102059999</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>67.64719527475313</v>
+        <v>67.647195275040161</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="4"/>
-        <v>17.874357973354201</v>
+        <v>17.874357973210785</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>4.9234474310906258</v>
+        <v>4.9234474311115166</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
-        <v>0.29068966198065294</v>
+        <v>0.29068966200604657</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>4.5458915224634099E-2</v>
+        <v>4.5458915224826993E-2</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="8"/>
-        <v>7.1536909003051434</v>
+        <v>7.153690900335496</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="9"/>
-        <v>2.0651598432916138</v>
+        <v>2.0651598430711715</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -13098,13 +13098,13 @@
         <v>8000</v>
       </c>
       <c r="C13">
-        <v>2083.4794808839001</v>
+        <v>2083.4794809999999</v>
       </c>
       <c r="D13">
         <v>465.8</v>
       </c>
       <c r="E13">
-        <v>32.182857142857102</v>
+        <v>32.182857140000003</v>
       </c>
       <c r="F13">
         <v>5.3760000000000003</v>
@@ -13113,43 +13113,43 @@
         <v>846</v>
       </c>
       <c r="H13">
-        <v>270.84237132352899</v>
+        <v>270.84237130000002</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>11703.680709350287</v>
+        <v>11703.680709439999</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>11.703680709350287</v>
+        <v>11.703680709439999</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>68.354564676466708</v>
+        <v>68.354564675942754</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="4"/>
-        <v>17.801916616021231</v>
+        <v>17.801916616876767</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>3.979944528287275</v>
+        <v>3.9799445282567665</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
-        <v>0.27498064875561429</v>
+        <v>0.27498064872909456</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-        <v>4.593426746258563E-2</v>
+        <v>4.593426746223353E-2</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="8"/>
-        <v>7.2284952145363555</v>
+        <v>7.2284952144809456</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="9"/>
-        <v>2.3141640484702219</v>
+        <v>2.3141640482514445</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
@@ -13160,13 +13160,13 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>2054.6821599453101</v>
+        <v>2054.6821599999998</v>
       </c>
       <c r="D14">
         <v>442.51</v>
       </c>
       <c r="E14">
-        <v>29.988571428571401</v>
+        <v>29.98857143</v>
       </c>
       <c r="F14">
         <v>5.3760000000000003</v>
@@ -13175,43 +13175,43 @@
         <v>846</v>
       </c>
       <c r="H14">
-        <v>297.39114391143897</v>
+        <v>297.39114389999997</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>11675.947875285321</v>
+        <v>11675.947875330001</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>11.675947875285321</v>
+        <v>11.675947875330001</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>68.516921156643193</v>
+        <v>68.516921156381002</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>17.597561944366767</v>
+        <v>17.597561944767826</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>3.7899278476282725</v>
+        <v>3.7899278476137699</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="6"/>
-        <v>0.25684057302147367</v>
+        <v>0.25684057303272623</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-        <v>4.6043371017264231E-2</v>
+        <v>4.6043371017088039E-2</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="8"/>
-        <v>7.2456644123150182</v>
+        <v>7.245664412287292</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="9"/>
-        <v>2.5470406950079996</v>
+        <v>2.5470406949002822</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
@@ -13222,13 +13222,13 @@
         <v>8000</v>
       </c>
       <c r="C15">
-        <v>2027.3242252582399</v>
+        <v>2027.3242250000001</v>
       </c>
       <c r="D15">
         <v>419.22</v>
       </c>
       <c r="E15">
-        <v>27.794285714285699</v>
+        <v>27.79428571</v>
       </c>
       <c r="F15">
         <v>5.3760000000000003</v>
@@ -13237,43 +13237,43 @@
         <v>846</v>
       </c>
       <c r="H15">
-        <v>323.87268518518499</v>
+        <v>323.87268519999998</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>11649.58719615771</v>
+        <v>11649.58719591</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>11.649587196157711</v>
+        <v>11.64958719591</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="3"/>
-        <v>68.671961205960812</v>
+        <v>68.671961207421006</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="4"/>
-        <v>17.402541318604801</v>
+        <v>17.402541316758107</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>3.5985824470953616</v>
+        <v>3.5985824471718795</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="6"/>
-        <v>0.23858601378985225</v>
+        <v>0.23858601375813698</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>4.6147557930405661E-2</v>
+        <v>4.6147557931386918E-2</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="8"/>
-        <v>7.2620598975303556</v>
+        <v>7.2620598976847708</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="9"/>
-        <v>2.7801215590884225</v>
+        <v>2.7801215592747091</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -13284,7 +13284,7 @@
         <v>8000</v>
       </c>
       <c r="C16">
-        <v>2001.30039011703</v>
+        <v>2001.3003900000001</v>
       </c>
       <c r="D16">
         <v>419.22</v>
@@ -13299,43 +13299,43 @@
         <v>846</v>
       </c>
       <c r="H16">
-        <v>350.28624535315902</v>
+        <v>350.28624539999998</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>11647.78263547019</v>
+        <v>11647.782635400001</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>11.64778263547019</v>
+        <v>11.6477826354</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
-        <v>68.682600374410768</v>
+        <v>68.682600374824645</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="4"/>
-        <v>17.181814365445039</v>
+        <v>17.181814364543836</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="5"/>
-        <v>3.59913996612006</v>
+        <v>3.5991399661417485</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="6"/>
-        <v>0.21978432119811445</v>
+        <v>0.21978432119943886</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-        <v>4.6154707451604035E-2</v>
+        <v>4.615470745188216E-2</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="8"/>
-        <v>7.2631849895939373</v>
+        <v>7.2631849896377059</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="9"/>
-        <v>3.0073212757804773</v>
+        <v>3.0073212762007442</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -13346,13 +13346,13 @@
         <v>8000</v>
       </c>
       <c r="C17">
-        <v>1987.15065852875</v>
+        <v>1987.1506589999999</v>
       </c>
       <c r="D17">
         <v>419.22</v>
       </c>
       <c r="E17">
-        <v>12.327416173570001</v>
+        <v>12.327416169999999</v>
       </c>
       <c r="F17">
         <v>5.3760000000000003</v>
@@ -13361,43 +13361,43 @@
         <v>846</v>
       </c>
       <c r="H17">
-        <v>376.63106343283499</v>
+        <v>376.63106340000002</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>11646.705138135154</v>
+        <v>11646.705138569998</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>11.646705138135154</v>
+        <v>11.646705138569997</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
-        <v>68.688954559391746</v>
+        <v>68.68895455682717</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="4"/>
-        <v>17.06191266079334</v>
+        <v>17.06191266420252</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="5"/>
-        <v>3.5994729412985267</v>
+        <v>3.5994729411641355</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="6"/>
-        <v>0.10584466617263258</v>
+        <v>0.1058446661380283</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
-        <v>4.615897746391126E-2</v>
+        <v>4.6158977462187854E-2</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="8"/>
-        <v>7.2638569446556778</v>
+        <v>7.2638569443844725</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="9"/>
-        <v>3.2337992502241746</v>
+        <v>3.2337992498215118</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -13408,13 +13408,13 @@
         <v>8000</v>
       </c>
       <c r="C18">
-        <v>1966.5931295304099</v>
+        <v>1966.59313</v>
       </c>
       <c r="D18">
         <v>419.22</v>
       </c>
       <c r="E18">
-        <v>10.2728468113083</v>
+        <v>10.272846810000001</v>
       </c>
       <c r="F18">
         <v>5.3760000000000003</v>
@@ -13423,43 +13423,43 @@
         <v>846</v>
       </c>
       <c r="H18">
-        <v>402.906367041198</v>
+        <v>402.90636699999999</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>11650.368343382917</v>
+        <v>11650.368343809998</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>11.650368343382917</v>
+        <v>11.650368343809998</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
-        <v>68.667356809742202</v>
+        <v>68.667356807224991</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="4"/>
-        <v>16.880094015631528</v>
+        <v>16.880094019043426</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="5"/>
-        <v>3.5983411652225161</v>
+        <v>3.5983411650906079</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="6"/>
-        <v>8.8176154680491184E-2</v>
+        <v>8.8176154666029141E-2</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="7"/>
-        <v>4.6144463776146762E-2</v>
+        <v>4.6144463774455198E-2</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="8"/>
-        <v>7.2615729826302378</v>
+        <v>7.2615729823640427</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="9"/>
-        <v>3.4583144083168627</v>
+        <v>3.4583144078364674</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -13470,13 +13470,13 @@
         <v>8080</v>
       </c>
       <c r="C19">
-        <v>1962.9861982434099</v>
+        <v>1962.9861980000001</v>
       </c>
       <c r="D19">
         <v>419.22</v>
       </c>
       <c r="E19">
-        <v>8.2182774490466795</v>
+        <v>8.2182774490000003</v>
       </c>
       <c r="F19">
         <v>5.3760000000000003</v>
@@ -13485,43 +13485,43 @@
         <v>846</v>
       </c>
       <c r="H19">
-        <v>424.82025845864598</v>
+        <v>424.82025850000002</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>11746.620734151102</v>
+        <v>11746.620733948999</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>11.746620734151101</v>
+        <v>11.746620733948999</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="3"/>
-        <v>68.785740025715754</v>
+        <v>68.785740026899219</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="4"/>
-        <v>16.711071572579122</v>
+        <v>16.711071570794473</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="5"/>
-        <v>3.5688561798985843</v>
+        <v>3.5688561799599867</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="6"/>
-        <v>6.9962907929372195E-2</v>
+        <v>6.9962907930178536E-2</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="7"/>
-        <v>4.5766353759684145E-2</v>
+        <v>4.5766353760471563E-2</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="8"/>
-        <v>7.2020712947717236</v>
+        <v>7.202071294895636</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="9"/>
-        <v>3.6165316653457666</v>
+        <v>3.6165316657600401</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -13532,13 +13532,13 @@
         <v>8160</v>
       </c>
       <c r="C20">
-        <v>1619.45812807881</v>
+        <v>1619.458128</v>
       </c>
       <c r="D20">
         <v>419.22</v>
       </c>
       <c r="E20">
-        <v>5.7527942143326696</v>
+        <v>5.7527942139999997</v>
       </c>
       <c r="F20">
         <v>5.3760000000000003</v>
@@ -13547,43 +13547,43 @@
         <v>846</v>
       </c>
       <c r="H20">
-        <v>446.14037735849001</v>
+        <v>446.14037739999998</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>11501.947299651632</v>
+        <v>11501.947299613999</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>11.501947299651633</v>
+        <v>11.501947299613999</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>70.944508676779876</v>
+        <v>70.944508677011981</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="4"/>
-        <v>14.079860443525591</v>
+        <v>14.079860442886469</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="5"/>
-        <v>3.644774133269566</v>
+        <v>3.6447741332814911</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="6"/>
-        <v>5.0015828315496703E-2</v>
+        <v>5.001582831276806E-2</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="7"/>
-        <v>4.6739911598819683E-2</v>
+        <v>4.673991159897261E-2</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="8"/>
-        <v>7.3552762672249719</v>
+        <v>7.3552762672490379</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="9"/>
-        <v>3.8788247392856912</v>
+        <v>3.8788247396592772</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -13594,13 +13594,13 @@
         <v>8292.7000000000007</v>
       </c>
       <c r="C21">
-        <v>1592.7397260273899</v>
+        <v>1592.739726</v>
       </c>
       <c r="D21">
         <v>419.22</v>
       </c>
       <c r="E21">
-        <v>5.3418803418803398</v>
+        <v>5.3418803419999996</v>
       </c>
       <c r="F21">
         <v>5.3760000000000003</v>
@@ -13613,39 +13613,39 @@
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>11613.587606369272</v>
+        <v>11613.587606342002</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>11.613587606369272</v>
+        <v>11.613587606342001</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>71.405153007603033</v>
+        <v>71.405153007770693</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="4"/>
-        <v>13.714450521334848</v>
+        <v>13.714450521131209</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="5"/>
-        <v>3.6097372681813331</v>
+        <v>3.609737268189809</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="6"/>
-        <v>4.5996814446473695E-2</v>
+        <v>4.5996814447612042E-2</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="7"/>
-        <v>4.6290605299706231E-2</v>
+        <v>4.6290605299814928E-2</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="8"/>
-        <v>7.3025668617239319</v>
+        <v>7.3025668617410791</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="9"/>
-        <v>3.8758049214106709</v>
+        <v>3.8758049214197716</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -13656,13 +13656,13 @@
         <v>8225.6625000000004</v>
       </c>
       <c r="C22">
-        <v>1495.2424242424199</v>
+        <v>1495.242424</v>
       </c>
       <c r="D22">
         <v>419.22</v>
       </c>
       <c r="E22">
-        <v>4.5200525969756704</v>
+        <v>4.5200525970000003</v>
       </c>
       <c r="F22">
         <v>5.7881600000000004</v>
@@ -13671,43 +13671,43 @@
         <v>850.28</v>
       </c>
       <c r="H22">
-        <v>469.048719691119</v>
+        <v>469.04871969999999</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>11469.761856530517</v>
+        <v>11469.761856297</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>11.469761856530516</v>
+        <v>11.469761856297</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>71.716070506874303</v>
+        <v>71.716070508334397</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="4"/>
-        <v>13.036385959409232</v>
+        <v>13.036385957561086</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="5"/>
-        <v>3.6550017798434893</v>
+        <v>3.6550017799179026</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="6"/>
-        <v>3.9408425854998E-2</v>
+        <v>3.9408425856012445E-2</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="7"/>
-        <v>5.0464517680499241E-2</v>
+        <v>5.0464517681526662E-2</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>7.4132315093872467</v>
+        <v>7.4132315095381767</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="9"/>
-        <v>4.089437300950217</v>
+        <v>4.0894373011109044</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
@@ -13718,13 +13718,13 @@
         <v>8158.8874999999998</v>
       </c>
       <c r="C23">
-        <v>1412.5263157894699</v>
+        <v>1412.526316</v>
       </c>
       <c r="D23">
-        <v>419.219999999999</v>
+        <v>419.22</v>
       </c>
       <c r="E23">
-        <v>4.0997570089490099</v>
+        <v>4.0997570090000002</v>
       </c>
       <c r="F23">
         <v>6.2003199999999996</v>
@@ -13733,43 +13733,43 @@
         <v>852.81</v>
       </c>
       <c r="H23">
-        <v>488.55303370786498</v>
+        <v>488.55303370000001</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>11342.296926506284</v>
+        <v>11342.296926708999</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>11.342296926506284</v>
+        <v>11.342296926708999</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>71.933291403552985</v>
+        <v>71.933291402267358</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="4"/>
-        <v>12.453617860139762</v>
+        <v>12.453617861773335</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="5"/>
-        <v>3.6960767533805816</v>
+        <v>3.6960767533145331</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="6"/>
-        <v>3.6145738693968747E-2</v>
+        <v>3.6145738693772286E-2</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="7"/>
-        <v>5.4665470672965844E-2</v>
+        <v>5.466547067198884E-2</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="8"/>
-        <v>7.5188474215221168</v>
+        <v>7.5188474213877354</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="9"/>
-        <v>4.3073553520376038</v>
+        <v>4.3073553518912782</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -13777,16 +13777,16 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>8289.7499999999909</v>
+        <v>8289.75</v>
       </c>
       <c r="C24">
-        <v>1379.8208955223799</v>
+        <v>1379.8208959999999</v>
       </c>
       <c r="D24">
-        <v>419.219999999999</v>
+        <v>419.22</v>
       </c>
       <c r="E24">
-        <v>4.0797067542614096</v>
+        <v>4.079706754</v>
       </c>
       <c r="F24">
         <v>7.2038399999999996</v>
@@ -13795,43 +13795,43 @@
         <v>847.99</v>
       </c>
       <c r="H24">
-        <v>480.42291666666603</v>
+        <v>480.42291669999997</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>11428.487358943297</v>
+        <v>11428.487359453999</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>11.428487358943297</v>
+        <v>11.428487359453998</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="3"/>
-        <v>72.535846080390471</v>
+        <v>72.535846077149159</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="4"/>
-        <v>12.073521649762416</v>
+        <v>12.073521653402096</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="5"/>
-        <v>3.66820198363295</v>
+        <v>3.6682019834690398</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="6"/>
-        <v>3.5697696695344887E-2</v>
+        <v>3.5697696691462326E-2</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="7"/>
-        <v>6.303406368440069E-2</v>
+        <v>6.3034063681583902E-2</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="8"/>
-        <v>7.4199670819639154</v>
+        <v>7.4199670816323424</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>4.2037314438705122</v>
+        <v>4.203731443974335</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -13842,13 +13842,13 @@
         <v>8350.15</v>
       </c>
       <c r="C25">
-        <v>1361.6666666666599</v>
+        <v>1361.666667</v>
       </c>
       <c r="D25">
-        <v>410.8550082557</v>
+        <v>410.85500830000001</v>
       </c>
       <c r="E25">
-        <v>4.3143250717191401</v>
+        <v>4.3143250719999999</v>
       </c>
       <c r="F25">
         <v>7.45472</v>
@@ -13857,43 +13857,43 @@
         <v>848.95500000000004</v>
       </c>
       <c r="H25">
-        <v>472.89833333333303</v>
+        <v>472.89833329999999</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>11456.29405332741</v>
+        <v>11456.294053672</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>11.45629405332741</v>
+        <v>11.456294053672</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="3"/>
-        <v>72.887008321637396</v>
+        <v>72.887008319445059</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="4"/>
-        <v>11.885751712799063</v>
+        <v>11.885751715351224</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="5"/>
-        <v>3.5862819716675278</v>
+        <v>3.5862819719463443</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="6"/>
-        <v>3.7658993838989942E-2</v>
+        <v>3.7658993840308783E-2</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="7"/>
-        <v>6.5070955452953147E-2</v>
+        <v>6.5070955450995907E-2</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="8"/>
-        <v>7.4103806697718824</v>
+        <v>7.4103806695489887</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="9"/>
-        <v>4.1278473748322009</v>
+        <v>4.1278473744170823</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -13904,13 +13904,13 @@
         <v>8607.5</v>
       </c>
       <c r="C26">
-        <v>1343.64705882352</v>
+        <v>1343.6470589999999</v>
       </c>
       <c r="D26">
-        <v>402.14066674430001</v>
+        <v>402.1406667</v>
       </c>
       <c r="E26">
-        <v>4.1223937921719198</v>
+        <v>4.1223937919999996</v>
       </c>
       <c r="F26">
         <v>8.26112</v>
@@ -13923,39 +13923,39 @@
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>11680.193239359991</v>
+        <v>11680.193239491997</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>11.680193239359991</v>
+        <v>11.680193239491997</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="3"/>
-        <v>73.693130101601326</v>
+        <v>73.693130100768471</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="4"/>
-        <v>11.503637236888251</v>
+        <v>11.503637238269175</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="5"/>
-        <v>3.4429281990743426</v>
+        <v>3.4429281986561566</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="6"/>
-        <v>3.529388348028567E-2</v>
+        <v>3.5293883478414896E-2</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="7"/>
-        <v>7.0727596972981782E-2</v>
+        <v>7.0727596972182449E-2</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="8"/>
-        <v>7.2884924294852409</v>
+        <v>7.2884924294028695</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="9"/>
-        <v>3.9657905524975834</v>
+        <v>3.9657905524527637</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -13966,58 +13966,58 @@
         <v>8975.5</v>
       </c>
       <c r="C27">
-        <v>1315.0588235294099</v>
+        <v>1343.6470589999999</v>
       </c>
       <c r="D27">
-        <v>395.54183337214999</v>
+        <v>395.54183339999997</v>
       </c>
       <c r="E27">
-        <v>3.3920347419549</v>
+        <v>3.3920347419999999</v>
       </c>
       <c r="F27">
-        <v>6.2540800000000001</v>
+        <v>8.2252799999999997</v>
       </c>
       <c r="G27">
-        <v>849.44499999999903</v>
+        <v>849.44500000000005</v>
       </c>
       <c r="H27">
-        <v>432.53279999999899</v>
+        <v>432.53280000000001</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>11977.724571643514</v>
+        <v>12008.284007142001</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>11.977724571643513</v>
+        <v>12.008284007142002</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="3"/>
-        <v>74.934933979438085</v>
+        <v>74.744234852055186</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="4"/>
-        <v>10.979204068882385</v>
+        <v>11.189334447793351</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="5"/>
-        <v>3.3023119792599811</v>
+        <v>3.2939080485167493</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="6"/>
-        <v>2.8319525312723606E-2</v>
+        <v>2.8247456006058536E-2</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="7"/>
-        <v>5.2214257913444834E-2</v>
+        <v>6.8496714394062991E-2</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="8"/>
-        <v>7.0918728755126406</v>
+        <v>7.0738250319095339</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="9"/>
-        <v>3.6111433136807336</v>
+        <v>3.6019534493250531</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -14028,58 +14028,58 @@
         <v>9284.5874999999996</v>
       </c>
       <c r="C28">
-        <v>1343.64705882352</v>
+        <v>1272.176471</v>
       </c>
       <c r="D28">
         <v>388.94299999999998</v>
       </c>
       <c r="E28">
-        <v>3.4053681699243099</v>
+        <v>3.5070153730000002</v>
       </c>
       <c r="F28">
-        <v>1.7203200000000001</v>
+        <v>8.2700800000000001</v>
       </c>
       <c r="G28">
-        <v>809.70999999999901</v>
+        <v>809.71</v>
       </c>
       <c r="H28">
-        <v>380.7099</v>
+        <v>408.81599999999997</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>12212.723146993443</v>
+        <v>12176.010066372999</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>12.212723146993444</v>
+        <v>12.176010066372999</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="3"/>
-        <v>76.023892364134213</v>
+        <v>76.253119448723496</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="4"/>
-        <v>11.002026678663409</v>
+        <v>10.448221248711214</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="5"/>
-        <v>3.1847360766198234</v>
+        <v>3.1943386863169594</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="6"/>
-        <v>2.7883774396070309E-2</v>
+        <v>2.8802664862157702E-2</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="7"/>
-        <v>1.4086293280328005E-2</v>
+        <v>6.7921100220176625E-2</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="8"/>
-        <v>6.6300528576162421</v>
+        <v>6.6500437794167926</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="9"/>
-        <v>3.1173219552899147</v>
+        <v>3.3575530717492126</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
@@ -14090,58 +14090,58 @@
         <v>9626.5</v>
       </c>
       <c r="C29">
-        <v>1315.0588235294099</v>
+        <v>1250.7352940000001</v>
       </c>
       <c r="D29">
         <v>384.28500000000003</v>
       </c>
       <c r="E29">
-        <v>3.1786072836069499</v>
+        <v>3.2258721709999998</v>
       </c>
       <c r="F29">
-        <v>1.68448</v>
+        <v>8.3148800000000005</v>
       </c>
       <c r="G29">
         <v>782.70749999999998</v>
       </c>
       <c r="H29">
-        <v>347.3032</v>
+        <v>398.37720000000002</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>12460.717610813017</v>
+        <v>12454.145746171002</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>12.460717610813017</v>
+        <v>12.454145746171001</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>77.254780187349951</v>
+        <v>77.295546368241645</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="4"/>
-        <v>10.553636352277524</v>
+        <v>10.042722475642584</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="5"/>
-        <v>3.0839716620054825</v>
+        <v>3.085599027280916</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="6"/>
-        <v>2.5509022697446052E-2</v>
+        <v>2.5901994699169047E-2</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="7"/>
-        <v>1.3518322560638575E-2</v>
+        <v>6.6763952899430226E-2</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="8"/>
-        <v>6.2813998715514687</v>
+        <v>6.284714471409182</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" si="9"/>
-        <v>2.7871845815574963</v>
+        <v>3.1987517098270684</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -14152,58 +14152,58 @@
         <v>9805.4500000000007</v>
       </c>
       <c r="C30">
-        <v>1286.4705882352901</v>
+        <v>1229.294118</v>
       </c>
       <c r="D30">
         <v>374.96899999999999</v>
       </c>
       <c r="E30">
-        <v>3.0168606482795002</v>
+        <v>3.0168606480000002</v>
       </c>
       <c r="F30">
-        <v>1.66656</v>
+        <v>8.3865599999999993</v>
       </c>
       <c r="G30">
-        <v>778.33499999999901</v>
+        <v>778.33500000000004</v>
       </c>
       <c r="H30">
-        <v>326.60479999999899</v>
+        <v>387.84320000000002</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>12576.512808883568</v>
+        <v>12587.294738648001</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>12.576512808883567</v>
+        <v>12.587294738648001</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="3"/>
-        <v>77.966365947433431</v>
+        <v>77.89958210713354</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="4"/>
-        <v>10.229151814854244</v>
+        <v>9.7661502612279207</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="5"/>
-        <v>2.9815021516547593</v>
+        <v>2.9789482790825264</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="6"/>
-        <v>2.3988053716674985E-2</v>
+        <v>2.396750620875698E-2</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="7"/>
-        <v>1.3251368048723377E-2</v>
+        <v>6.6627183792319772E-2</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="8"/>
-        <v>6.1887982132075035</v>
+        <v>6.1834970592227574</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" si="9"/>
-        <v>2.5969424510846744</v>
+        <v>3.0812276033321693</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -14214,58 +14214,58 @@
         <v>9977.4</v>
       </c>
       <c r="C31">
-        <v>1257.88235294117</v>
+        <v>1215</v>
       </c>
       <c r="D31">
         <v>365.65300000000002</v>
       </c>
       <c r="E31">
-        <v>2.6551843155685</v>
+        <v>2.6551843160000002</v>
       </c>
       <c r="F31">
-        <v>1.6486400000000001</v>
+        <v>8.45824</v>
       </c>
       <c r="G31">
         <v>756.04499999999996</v>
       </c>
       <c r="H31">
-        <v>305.94</v>
+        <v>382.42500000000001</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>12667.224177256738</v>
+        <v>12707.636424315999</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>12.667224177256738</v>
+        <v>12.707636424315998</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="3"/>
-        <v>78.765480585034879</v>
+        <v>78.514994188126877</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="4"/>
-        <v>9.9302130864599718</v>
+        <v>9.5611800607948112</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="5"/>
-        <v>2.8866071594162568</v>
+        <v>2.8774273026911978</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="6"/>
-        <v>2.0961058858780825E-2</v>
+        <v>2.0894399456686676E-2</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="7"/>
-        <v>1.301500610496842E-2</v>
+        <v>6.6560292705693094E-2</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="8"/>
-        <v>5.9685136176671971</v>
+        <v>5.9495328222745787</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="9"/>
-        <v>2.4152094864579521</v>
+        <v>3.0094109339501696</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -14276,58 +14276,58 @@
         <v>9940.2374999999993</v>
       </c>
       <c r="C32">
-        <v>1222.14705882352</v>
+        <v>1200.705882</v>
       </c>
       <c r="D32">
         <v>359.83049999999997</v>
       </c>
       <c r="E32">
-        <v>2.3330387718046399</v>
+        <v>2.3330387720000001</v>
       </c>
       <c r="F32">
-        <v>1.63968</v>
+        <v>8.1954133329999994</v>
       </c>
       <c r="G32">
-        <v>720.426999999999</v>
+        <v>720.42700000000002</v>
       </c>
       <c r="H32">
-        <v>295.85219999999902</v>
+        <v>377.46660000000003</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>12542.466977595324</v>
+        <v>12609.195934104999</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>12.542466977595325</v>
+        <v>12.609195934104999</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="3"/>
-        <v>79.252650357830717</v>
+        <v>78.833238470931548</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="4"/>
-        <v>9.7440723663586102</v>
+        <v>9.5224619260008829</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="5"/>
-        <v>2.8688973281154904</v>
+        <v>2.8537148750836723</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="6"/>
-        <v>1.8601115521947632E-2</v>
+        <v>1.8502676809785013E-2</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="7"/>
-        <v>1.307302624698131E-2</v>
+        <v>6.499552688235477E-2</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="8"/>
-        <v>5.7439019077100344</v>
+        <v>5.7135046815428518</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" si="9"/>
-        <v>2.3588038982162072</v>
+        <v>2.993581842748902</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -14338,58 +14338,58 @@
         <v>9901.5</v>
       </c>
       <c r="C33">
-        <v>1186.4117647058799</v>
+        <v>1191.176471</v>
       </c>
       <c r="D33">
         <v>354.00799999999998</v>
       </c>
       <c r="E33">
-        <v>2.1767377735542599</v>
+        <v>2.1767377739999998</v>
       </c>
       <c r="F33">
-        <v>1.6307199999999999</v>
+        <v>7.9325866669999998</v>
       </c>
       <c r="G33">
-        <v>692.09266666666599</v>
+        <v>692.0926667</v>
       </c>
       <c r="H33">
-        <v>285.7568</v>
+        <v>362.29880000000003</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>12423.576689146097</v>
+        <v>12511.185262141002</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>12.423576689146097</v>
+        <v>12.511185262141002</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="3"/>
-        <v>79.699270570370288</v>
+        <v>79.141182809929759</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="4"/>
-        <v>9.5496795680618511</v>
+        <v>9.5208922739279895</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="5"/>
-        <v>2.8494853684871631</v>
+        <v>2.8295320753600581</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="6"/>
-        <v>1.752102335759697E-2</v>
+        <v>1.7398333798052168E-2</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="7"/>
-        <v>1.3126010655407187E-2</v>
+        <v>6.3403958144590059E-2</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="8"/>
-        <v>5.5708004545205991</v>
+        <v>5.5317913706727753</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="9"/>
-        <v>2.3001170045471078</v>
+        <v>2.8957991781667607</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -14397,61 +14397,61 @@
         <v>2027</v>
       </c>
       <c r="B34">
-        <v>10008.405555555501</v>
+        <v>10008.405559999999</v>
       </c>
       <c r="C34">
-        <v>1181.64705882352</v>
+        <v>1181.6470589999999</v>
       </c>
       <c r="D34">
-        <v>348.57366666666599</v>
+        <v>348.57366669999999</v>
       </c>
       <c r="E34">
-        <v>2.06856477579512</v>
+        <v>2.0685647760000001</v>
       </c>
       <c r="F34">
-        <v>1.6128</v>
+        <v>7.6697600000000001</v>
       </c>
       <c r="G34">
-        <v>680.278111111111</v>
+        <v>680.27811110000005</v>
       </c>
       <c r="H34">
-        <v>269.70993333333303</v>
+        <v>346.04293330000002</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>12492.295690265926</v>
+        <v>12574.685654875999</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>12.492295690265927</v>
+        <v>12.574685654875999</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="3"/>
-        <v>80.116623907278409</v>
+        <v>79.591695845844939</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="4"/>
-        <v>9.4590064798439464</v>
+        <v>9.3970306012524532</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="5"/>
-        <v>2.7903091257940424</v>
+        <v>2.7720268821577738</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="6"/>
-        <v>1.6558724089495883E-2</v>
+        <v>1.6450230508926376E-2</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="7"/>
-        <v>1.2910357231270979E-2</v>
+        <v>6.0993651932968594E-2</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="8"/>
-        <v>5.4455812444560356</v>
+        <v>5.4099015257388432</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="9"/>
-        <v>2.1590101613068016</v>
+        <v>2.7519012625641053</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -14459,61 +14459,61 @@
         <v>2028</v>
       </c>
       <c r="B35">
-        <v>10113.405555555501</v>
+        <v>10113.405559999999</v>
       </c>
       <c r="C35">
-        <v>1176.88235294117</v>
+        <v>1172.117647</v>
       </c>
       <c r="D35">
-        <v>343.13933333333301</v>
+        <v>343.13933329999998</v>
       </c>
       <c r="E35">
-        <v>1.9645133024313699</v>
+        <v>1.9645133020000001</v>
       </c>
       <c r="F35">
-        <v>1.5948800000000001</v>
+        <v>7.3949866670000004</v>
       </c>
       <c r="G35">
-        <v>668.33333333333303</v>
+        <v>668.33333330000005</v>
       </c>
       <c r="H35">
-        <v>253.74666666666599</v>
+        <v>329.87066670000002</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>12559.066635132433</v>
+        <v>12636.226040268997</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>12.559066635132433</v>
+        <v>12.636226040268998</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ref="L35:L57" si="10">B35/$I35*100</f>
-        <v>80.526729010772996</v>
+        <v>80.035016212678528</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="4"/>
-        <v>9.3707787937758642</v>
+        <v>9.2758521671320793</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="5"/>
-        <v>2.7322040984593809</v>
+        <v>2.7155206958666858</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="6"/>
-        <v>1.5642191888176525E-2</v>
+        <v>1.554667743153303E-2</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="7"/>
-        <v>1.2699032868720683E-2</v>
+        <v>5.8522114462290657E-2</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="8"/>
-        <v>5.3215207208452364</v>
+        <v>5.289026416353761</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="9"/>
-        <v>2.0204261513896355</v>
+        <v>2.610515716075128</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -14524,58 +14524,58 @@
         <v>10216.5</v>
       </c>
       <c r="C36">
-        <v>1172.11764705882</v>
+        <v>1162.5882349999999</v>
       </c>
       <c r="D36">
         <v>337.70499999999998</v>
       </c>
       <c r="E36">
-        <v>1.84095440417322</v>
+        <v>1.8409544040000001</v>
       </c>
       <c r="F36">
-        <v>1.5769599999999999</v>
+        <v>7.1202133329999997</v>
       </c>
       <c r="G36">
-        <v>670.19733333333295</v>
+        <v>670.19733329999997</v>
       </c>
       <c r="H36">
-        <v>237.866999999999</v>
+        <v>312.09500000000003</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>12637.804894796325</v>
+        <v>12708.046736037</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>12.637804894796325</v>
+        <v>12.708046736037</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="10"/>
-        <v>80.840779589869214</v>
+        <v>80.393944185210103</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="4"/>
-        <v>9.2746933254322101</v>
+        <v>9.148441606711879</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="5"/>
-        <v>2.6721808321241896</v>
+        <v>2.6574107493825063</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="6"/>
-        <v>1.4567042453165592E-2</v>
+        <v>1.4486525287788647E-2</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="7"/>
-        <v>1.2478116359030993E-2</v>
+        <v>5.60291717594079E-2</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="8"/>
-        <v>5.3031150497448314</v>
+        <v>5.2738028685358831</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" si="9"/>
-        <v>1.8821860440173581</v>
+        <v>2.4558848931124309</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -14583,61 +14583,61 @@
         <v>2030</v>
       </c>
       <c r="B37">
-        <v>10170.9111111111</v>
+        <v>10170.911109999999</v>
       </c>
       <c r="C37">
-        <v>1167.35294117647</v>
+        <v>1153.058824</v>
       </c>
       <c r="D37">
         <v>335.37599999999998</v>
       </c>
       <c r="E37">
-        <v>1.7075395688916299</v>
+        <v>1.7075395689999999</v>
       </c>
       <c r="F37">
-        <v>1.54112</v>
+        <v>6.84544</v>
       </c>
       <c r="G37">
-        <v>671.74133333333305</v>
+        <v>671.74133329999995</v>
       </c>
       <c r="H37">
-        <v>235.91555555555499</v>
+        <v>294.8944444</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>12584.54560074535</v>
+        <v>12634.534691269</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>12.584545600745351</v>
+        <v>12.634534691269</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="10"/>
-        <v>80.82064648014547</v>
+        <v>80.500876039610148</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="4"/>
-        <v>9.276083366151342</v>
+        <v>9.1262468478305934</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="5"/>
-        <v>2.6649829929507867</v>
+        <v>2.6544388708810862</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="6"/>
-        <v>1.3568543696885619E-2</v>
+        <v>1.3514859159633179E-2</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="7"/>
-        <v>1.2246131476600341E-2</v>
+        <v>5.4180388651198133E-2</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="8"/>
-        <v>5.3378274801876637</v>
+        <v>5.3167081314375721</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="9"/>
-        <v>1.874645005391234</v>
+        <v>2.3340348624297547</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -14645,61 +14645,61 @@
         <v>2031</v>
       </c>
       <c r="B38">
-        <v>10125.0111111111</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C38">
-        <v>1162.5882352941101</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D38">
         <v>333.04700000000003</v>
       </c>
       <c r="E38">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F38">
-        <v>1.50528</v>
+        <v>6.84544</v>
       </c>
       <c r="G38">
-        <v>673.28533333333303</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H38">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>12531.112388196323</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>12.531112388196323</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="10"/>
-        <v>80.798980947999084</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="4"/>
-        <v>9.2776139841280933</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="5"/>
-        <v>2.6577608569987254</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" si="6"/>
-        <v>1.3626400562012725E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="7"/>
-        <v>1.2012341389722894E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="8"/>
-        <v>5.3729095428713407</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" si="9"/>
-        <v>1.8670959260510185</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -14707,61 +14707,61 @@
         <v>2032</v>
       </c>
       <c r="B39">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C39">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D39">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E39">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F39">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G39">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H39">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -14769,61 +14769,61 @@
         <v>2033</v>
       </c>
       <c r="B40">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C40">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D40">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E40">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F40">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G40">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H40">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -14831,61 +14831,61 @@
         <v>2034</v>
       </c>
       <c r="B41">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C41">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D41">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E41">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F41">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G41">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H41">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -14893,61 +14893,61 @@
         <v>2035</v>
       </c>
       <c r="B42">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C42">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D42">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E42">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F42">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G42">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H42">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -14955,61 +14955,61 @@
         <v>2036</v>
       </c>
       <c r="B43">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C43">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D43">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E43">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F43">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G43">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H43">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -15017,61 +15017,61 @@
         <v>2037</v>
       </c>
       <c r="B44">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C44">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D44">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E44">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F44">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G44">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H44">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -15079,61 +15079,61 @@
         <v>2038</v>
       </c>
       <c r="B45">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C45">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D45">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E45">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F45">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G45">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H45">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -15141,61 +15141,61 @@
         <v>2039</v>
       </c>
       <c r="B46">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C46">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D46">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E46">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F46">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G46">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H46">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -15203,61 +15203,61 @@
         <v>2040</v>
       </c>
       <c r="B47">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C47">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D47">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E47">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F47">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G47">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H47">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -15265,61 +15265,61 @@
         <v>2041</v>
       </c>
       <c r="B48">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C48">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D48">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E48">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F48">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G48">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H48">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -15327,61 +15327,61 @@
         <v>2042</v>
       </c>
       <c r="B49">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C49">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D49">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E49">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F49">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G49">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H49">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -15389,61 +15389,61 @@
         <v>2043</v>
       </c>
       <c r="B50">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C50">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D50">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E50">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F50">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G50">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H50">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -15451,61 +15451,61 @@
         <v>2044</v>
       </c>
       <c r="B51">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C51">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D51">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E51">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F51">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G51">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H51">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q51" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -15513,61 +15513,61 @@
         <v>2045</v>
       </c>
       <c r="B52">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C52">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D52">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E52">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F52">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G52">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H52">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -15575,61 +15575,61 @@
         <v>2046</v>
       </c>
       <c r="B53">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C53">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D53">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E53">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F53">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G53">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H53">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -15637,61 +15637,61 @@
         <v>2047</v>
       </c>
       <c r="B54">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C54">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D54">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E54">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F54">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G54">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H54">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -15699,61 +15699,61 @@
         <v>2048</v>
       </c>
       <c r="B55">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C55">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D55">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E55">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F55">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G55">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H55">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -15761,61 +15761,61 @@
         <v>2049</v>
       </c>
       <c r="B56">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C56">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D56">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E56">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F56">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G56">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H56">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -15823,61 +15823,61 @@
         <v>2050</v>
       </c>
       <c r="B57">
-        <v>10078.799999999999</v>
+        <v>10125.011109999999</v>
       </c>
       <c r="C57">
-        <v>1157.8235294117601</v>
+        <v>1143.5294120000001</v>
       </c>
       <c r="D57">
-        <v>314.29854999999998</v>
+        <v>333.04700000000003</v>
       </c>
       <c r="E57">
-        <v>1.7075395688916299</v>
+        <v>1.5781251409999999</v>
       </c>
       <c r="F57">
-        <v>1.4694400000000001</v>
+        <v>6.84544</v>
       </c>
       <c r="G57">
-        <v>675.15200000000004</v>
+        <v>673.28533330000005</v>
       </c>
       <c r="H57">
-        <v>233.96788888888801</v>
+        <v>277.73166670000001</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>12463.21894786954</v>
+        <v>12561.028087141</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>12.463218947869541</v>
+        <v>12.561028087140999</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="10"/>
-        <v>80.868353851096131</v>
+        <v>80.606547806108281</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="4"/>
-        <v>9.2899236886926246</v>
+        <v>9.1037883528869443</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="5"/>
-        <v>2.5218087824231485</v>
+        <v>2.6514310587438903</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" si="6"/>
-        <v>1.370063043932576E-2</v>
+        <v>1.2563662226148202E-2</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="7"/>
-        <v>1.1790212513687611E-2</v>
+        <v>5.4497449989844605E-2</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="8"/>
-        <v>5.4171558954712129</v>
+        <v>5.3601132696236631</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="9"/>
-        <v>1.8772669393638666</v>
+        <v>2.2110584004212201</v>
       </c>
     </row>
   </sheetData>
@@ -15891,7 +15891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FCC222-30DE-4579-B7D5-14187B1877AA}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
@@ -17900,7 +17900,7 @@
         <v>6.2202149069999999</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="9">SUM(B34:G34)</f>
+        <f t="shared" ref="H34:H57" si="9">SUM(B34:G34)</f>
         <v>15736.945234999999</v>
       </c>
       <c r="I34">
